--- a/documents/User Stories.xlsx
+++ b/documents/User Stories.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffertyleung/Desktop/cs691/2023S-Leung/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB81E4A-2FC8-9C4D-BDF5-B7C22E8D4787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46107E98-EC54-7942-948D-23316401D082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020" xr2:uid="{351CFA0B-0FE8-594F-97F8-9860A1E95345}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -140,9 +143,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,135 +469,135 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="143.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D9">
@@ -597,5 +606,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>